--- a/nr-update-is-links/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/nr-update-is-links/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:37:08+00:00</t>
+    <t>2024-12-23T15:03:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/nr-update-is-links/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:03:08+00:00</t>
+    <t>2024-12-23T15:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/nr-update-is-links/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:06:22+00:00</t>
+    <t>2024-12-23T15:21:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/FrInpatientMedicationRequest</t>
+    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
   </si>
   <si>
     <t>Display</t>

--- a/nr-update-is-links/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/nr-update-is-links/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:21:49+00:00</t>
+    <t>2024-12-23T15:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/nr-update-is-links/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:22:28+00:00</t>
+    <t>2024-12-23T15:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
